--- a/LavoroGruppo/Consegna2/MODELLO_stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna2/MODELLO_stato_di_avanzamento.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBB0470-9EB9-46DC-A43F-E598E5EAF71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="720" windowWidth="25035" windowHeight="15435" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stato di avanzamento" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -30,26 +36,65 @@
     <t>Stato di avanzamento</t>
   </si>
   <si>
-    <t>Allievo:</t>
-  </si>
-  <si>
     <t>Gruppo:</t>
   </si>
   <si>
     <t>Progetto:</t>
   </si>
   <si>
-    <t>Codice</t>
-  </si>
-  <si>
     <t>Durata (min)</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Time&amp;Pieces</t>
+  </si>
+  <si>
+    <t>Fabio</t>
+  </si>
+  <si>
+    <t>Simone</t>
+  </si>
+  <si>
+    <t>Dario</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Revisione Annuncio di Progetto</t>
+  </si>
+  <si>
+    <t>Stesura Annuncio di Progetto</t>
+  </si>
+  <si>
+    <t>Ultimazione Verbale preparazione incontro di riunione</t>
+  </si>
+  <si>
+    <t>Incontro di riunione con azienda Time&amp;Pieces, domande</t>
+  </si>
+  <si>
+    <t>Preparazione Verbale di riunione</t>
+  </si>
+  <si>
+    <t>Incontro di riunione con azienda Time&amp;Pieces, stesura verbale</t>
+  </si>
+  <si>
+    <t>Ultimazione Verbale, inizio catalago requisiti</t>
+  </si>
+  <si>
+    <t>Aggiornamento stato di avanzamento, controllo, Gant Chart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,14 +204,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale visitato" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale visitato" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -491,267 +544,413 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="122.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44630</v>
+      </c>
+      <c r="C7" s="3">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44630</v>
+      </c>
+      <c r="C8" s="3">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44630</v>
+      </c>
+      <c r="C9" s="3">
+        <v>90</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44630</v>
+      </c>
+      <c r="C10" s="3">
+        <v>90</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44637</v>
+      </c>
+      <c r="C11" s="3">
+        <v>90</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44637</v>
+      </c>
+      <c r="C12" s="3">
+        <v>90</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44637</v>
+      </c>
+      <c r="C13" s="5">
+        <v>90</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44637</v>
+      </c>
+      <c r="C14" s="5">
+        <v>90</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44644</v>
+      </c>
+      <c r="C15" s="3">
+        <v>90</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44644</v>
+      </c>
+      <c r="C16" s="5">
+        <v>90</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4">
+        <v>44645</v>
+      </c>
+      <c r="C17" s="3">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44645</v>
+      </c>
+      <c r="C18" s="5">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44645</v>
+      </c>
+      <c r="C19" s="5">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44651</v>
+      </c>
+      <c r="C20" s="5">
+        <v>90</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="6">
+        <v>44651</v>
+      </c>
+      <c r="C21" s="5">
+        <v>90</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44651</v>
+      </c>
+      <c r="C22" s="5">
+        <v>90</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6">
+        <v>44651</v>
+      </c>
+      <c r="C23" s="5">
+        <v>90</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="6">
+        <v>44656</v>
+      </c>
+      <c r="C24" s="5">
+        <v>40</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="6"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="6"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="7"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LavoroGruppo/Consegna2/MODELLO_stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna2/MODELLO_stato_di_avanzamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Documents\COME\LavoroGruppo\Consegna2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBB0470-9EB9-46DC-A43F-E598E5EAF71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2C89A0-7D7F-422F-ACA7-42AFAA306384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stato di avanzamento" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -204,11 +204,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -851,32 +851,64 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="4">
+        <v>44657</v>
+      </c>
+      <c r="C25" s="5">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="A26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4">
+        <v>44657</v>
+      </c>
+      <c r="C26" s="5">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4">
+        <v>44657</v>
+      </c>
+      <c r="C27" s="5">
+        <v>30</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="A28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="4">
+        <v>44657</v>
+      </c>
+      <c r="C28" s="5">
+        <v>30</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="6"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>

--- a/LavoroGruppo/Consegna2/MODELLO_stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna2/MODELLO_stato_di_avanzamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Documents\COME\LavoroGruppo\Consegna2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2C89A0-7D7F-422F-ACA7-42AFAA306384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6BA6F4-ACC8-468A-9301-B98862CA7BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stato di avanzamento" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Aggiornamento stato di avanzamento, controllo, Gant Chart</t>
+  </si>
+  <si>
+    <t>Inizio catalago requisiti, use case di contesto</t>
   </si>
 </sst>
 </file>
@@ -547,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -858,10 +861,10 @@
         <v>44657</v>
       </c>
       <c r="C25" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -872,10 +875,10 @@
         <v>44657</v>
       </c>
       <c r="C26" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -886,10 +889,10 @@
         <v>44657</v>
       </c>
       <c r="C27" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -900,10 +903,10 @@
         <v>44657</v>
       </c>
       <c r="C28" s="5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">

--- a/LavoroGruppo/Consegna2/MODELLO_stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna2/MODELLO_stato_di_avanzamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Documents\COME\LavoroGruppo\Consegna2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6BA6F4-ACC8-468A-9301-B98862CA7BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09F431F-4CA4-4E85-AB74-CF4120E08161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stato di avanzamento" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>Aggiornamento stato di avanzamento, controllo, Gant Chart</t>
   </si>
   <si>
-    <t>Inizio catalago requisiti, use case di contesto</t>
+    <t>Catalago requisiti, use case di contesto</t>
   </si>
 </sst>
 </file>
@@ -207,11 +207,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale visitato" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale visitato" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -551,7 +551,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D25" sqref="D25:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/LavoroGruppo/Consegna2/MODELLO_stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna2/MODELLO_stato_di_avanzamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\GitHub\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09F431F-4CA4-4E85-AB74-CF4120E08161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD198FAC-3AAA-49D4-A375-E40A9A24E715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stato di avanzamento" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -60,12 +60,6 @@
     <t>Simone</t>
   </si>
   <si>
-    <t>Dario</t>
-  </si>
-  <si>
-    <t>Aaron</t>
-  </si>
-  <si>
     <t>Revisione Annuncio di Progetto</t>
   </si>
   <si>
@@ -75,9 +69,6 @@
     <t>Ultimazione Verbale preparazione incontro di riunione</t>
   </si>
   <si>
-    <t>Incontro di riunione con azienda Time&amp;Pieces, domande</t>
-  </si>
-  <si>
     <t>Preparazione Verbale di riunione</t>
   </si>
   <si>
@@ -91,6 +82,27 @@
   </si>
   <si>
     <t>Catalago requisiti, use case di contesto</t>
+  </si>
+  <si>
+    <t>Crezione use case "Gestione utenti e gruppi"</t>
+  </si>
+  <si>
+    <t>Crezione UML "Gestione utenti e gruppi"</t>
+  </si>
+  <si>
+    <t>Gruppo</t>
+  </si>
+  <si>
+    <t>Dario e Aaron</t>
+  </si>
+  <si>
+    <t>Fabio e Simone</t>
+  </si>
+  <si>
+    <t>Dario e Simone</t>
+  </si>
+  <si>
+    <t>Dario, Aaron e Simone</t>
   </si>
 </sst>
 </file>
@@ -548,15 +560,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="24.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="122.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="1" bestFit="1" customWidth="1"/>
@@ -603,7 +615,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4">
         <v>44630</v>
@@ -612,29 +624,29 @@
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4">
         <v>44630</v>
       </c>
       <c r="C8" s="3">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4">
-        <v>44630</v>
+        <v>44637</v>
       </c>
       <c r="C9" s="3">
         <v>90</v>
@@ -645,55 +657,55 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4">
-        <v>44630</v>
+        <v>44644</v>
       </c>
       <c r="C10" s="3">
         <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4">
-        <v>44637</v>
+        <v>44645</v>
       </c>
       <c r="C11" s="3">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4">
-        <v>44637</v>
-      </c>
-      <c r="C12" s="3">
+        <v>44651</v>
+      </c>
+      <c r="C12" s="5">
         <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4">
-        <v>44637</v>
+      <c r="A13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44656</v>
       </c>
       <c r="C13" s="5">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>17</v>
@@ -701,291 +713,119 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B14" s="4">
-        <v>44637</v>
+        <v>44657</v>
       </c>
       <c r="C14" s="5">
-        <v>90</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
+        <v>60</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
+      <c r="A15" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="4">
-        <v>44644</v>
-      </c>
-      <c r="C15" s="3">
-        <v>90</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
+        <v>44658</v>
+      </c>
+      <c r="C15" s="5">
+        <v>60</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
+      <c r="A16" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>44644</v>
+        <v>44666</v>
       </c>
       <c r="C16" s="5">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
+      <c r="A17" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>44645</v>
-      </c>
-      <c r="C17" s="3">
+        <v>44667</v>
+      </c>
+      <c r="C17" s="5">
         <v>40</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>18</v>
+      <c r="D17" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4">
-        <v>44645</v>
-      </c>
-      <c r="C18" s="5">
-        <v>40</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="4">
-        <v>44645</v>
-      </c>
-      <c r="C19" s="5">
-        <v>40</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="4">
-        <v>44651</v>
-      </c>
-      <c r="C20" s="5">
-        <v>90</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="6">
-        <v>44651</v>
-      </c>
-      <c r="C21" s="5">
-        <v>90</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="4">
-        <v>44651</v>
-      </c>
-      <c r="C22" s="5">
-        <v>90</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="6">
-        <v>44651</v>
-      </c>
-      <c r="C23" s="5">
-        <v>90</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="6">
-        <v>44656</v>
-      </c>
-      <c r="C24" s="5">
-        <v>40</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="4">
-        <v>44657</v>
-      </c>
-      <c r="C25" s="5">
-        <v>60</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="4">
-        <v>44657</v>
-      </c>
-      <c r="C26" s="5">
-        <v>60</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="4">
-        <v>44657</v>
-      </c>
-      <c r="C27" s="5">
-        <v>60</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="4">
-        <v>44657</v>
-      </c>
-      <c r="C28" s="5">
-        <v>60</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LavoroGruppo/Consegna2/MODELLO_stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna2/MODELLO_stato_di_avanzamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\GitHub\LavoroGruppo\Consegna3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD198FAC-3AAA-49D4-A375-E40A9A24E715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA600AC-1970-49E2-985E-4AC2846BE5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stato di avanzamento" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -87,9 +87,6 @@
     <t>Crezione use case "Gestione utenti e gruppi"</t>
   </si>
   <si>
-    <t>Crezione UML "Gestione utenti e gruppi"</t>
-  </si>
-  <si>
     <t>Gruppo</t>
   </si>
   <si>
@@ -103,6 +100,24 @@
   </si>
   <si>
     <t>Dario, Aaron e Simone</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Dario</t>
+  </si>
+  <si>
+    <t>Crezione use case "Login"</t>
+  </si>
+  <si>
+    <t>Crezione use case "Inserimento dati"</t>
+  </si>
+  <si>
+    <t>Crezione activity diagram "Gestione utenti e gruppi"</t>
+  </si>
+  <si>
+    <t>Creazione use case "invio report"</t>
   </si>
 </sst>
 </file>
@@ -562,15 +577,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="122.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="125" style="1" customWidth="1"/>
   </cols>
@@ -615,7 +630,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4">
         <v>44630</v>
@@ -629,7 +644,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4">
         <v>44630</v>
@@ -643,7 +658,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4">
         <v>44637</v>
@@ -657,7 +672,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4">
         <v>44644</v>
@@ -671,7 +686,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4">
         <v>44645</v>
@@ -685,7 +700,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4">
         <v>44651</v>
@@ -713,7 +728,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4">
         <v>44657</v>
@@ -741,49 +756,73 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4">
-        <v>44666</v>
+        <v>44665</v>
       </c>
       <c r="C16" s="5">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4">
+        <v>44665</v>
+      </c>
+      <c r="C17" s="5">
+        <v>90</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B18" s="4">
+        <v>44666</v>
+      </c>
+      <c r="C18" s="5">
+        <v>60</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4">
         <v>44667</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C19" s="5">
         <v>40</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6">
+        <v>44669</v>
+      </c>
+      <c r="C20" s="5">
+        <v>60</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>

--- a/LavoroGruppo/Consegna2/MODELLO_stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna2/MODELLO_stato_di_avanzamento.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA600AC-1970-49E2-985E-4AC2846BE5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E177FBD5-82A6-45A2-9EE0-E5FF920EC34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stato di avanzamento" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -577,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
